--- a/biology/Médecine/Beth_Israel_Deaconess_Medical_Center/Beth_Israel_Deaconess_Medical_Center.xlsx
+++ b/biology/Médecine/Beth_Israel_Deaconess_Medical_Center/Beth_Israel_Deaconess_Medical_Center.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Beth Israel Deaconess Medical Center (BIDMC) est un centre hospitalier universitaire lié à la Harvard Medical School.
 Situé dans la Longwood Medical and Academic Area à Boston dans le Massachusetts, il est le résultat d'une fusion de 1996 entre le Beth Israel Hospital (fondé en 1916) et le New England Deaconess Hospital (fondé en 1896).
-Le Beth Israel Deaconess Medical Center est l'hôpital officiel des Red Sox de Boston[1].
-Il est connu dans l’univers des réseaux de télécommunication pour avoir subi une coupure de quatre jours à la suite de plusieurs erreurs de mise en œuvre du Spanning Tree Protocol[2].
+Le Beth Israel Deaconess Medical Center est l'hôpital officiel des Red Sox de Boston.
+Il est connu dans l’univers des réseaux de télécommunication pour avoir subi une coupure de quatre jours à la suite de plusieurs erreurs de mise en œuvre du Spanning Tree Protocol.
 </t>
         </is>
       </c>
